--- a/biology/Médecine/Clinique_Paula_Stradins_de_l'hôpital_universitaire/Clinique_Paula_Stradins_de_l'hôpital_universitaire.xlsx
+++ b/biology/Médecine/Clinique_Paula_Stradins_de_l'hôpital_universitaire/Clinique_Paula_Stradins_de_l'hôpital_universitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clinique_Paula_Stradins_de_l%27h%C3%B4pital_universitaire</t>
+          <t>Clinique_Paula_Stradins_de_l'hôpital_universitaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La clinique Paula Stradins de l'hôpital universitaire (en letton : Paula Stradiņa klīniskā universitātes slimnīca, sigle PSKUS) est un hôpital situé dans le quartier d'Āgenskalns à Rīga en Lettonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clinique Paula Stradins de l'hôpital universitaire (en letton : Paula Stradiņa klīniskā universitātes slimnīca, sigle PSKUS) est un hôpital situé dans le quartier d'Āgenskalns à Rīga en Lettonie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinique_Paula_Stradins_de_l%27h%C3%B4pital_universitaire</t>
+          <t>Clinique_Paula_Stradins_de_l'hôpital_universitaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clinique est depuis 1999 un hôpital universitaire ou hôpital de niveau V situé au 13 Pilsonņu irla dans le quartier d'Āgenskalns. L'hôpital est une société à capital d'État, le détenteur de ses parts de capital d'État est le ministère de la Santé (lv).
 La clinique Pauls Stradiņš assure des services de soins de santé ambulatoires et hospitaliers.
-L'hôpital compte 840 lits[1].
+L'hôpital compte 840 lits.
 Cet hôpital joue également un rôle dans la science médicale et l'enseignement médical. Il vise à devenir un centre scientifique et de formation pour les résidents et les futurs médecins et est actuellement affilié à deux universités, l'université de Lettonie et l'université Stradiņš de Riga.
-Il porte le nom de Pauls Stradiņš (lv)[2].
+Il porte le nom de Pauls Stradiņš (lv).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clinique_Paula_Stradins_de_l%27h%C3%B4pital_universitaire</t>
+          <t>Clinique_Paula_Stradins_de_l'hôpital_universitaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Départements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécialités de la clinique sont répartis comme suit[3]: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécialités de la clinique sont répartis comme suit: 
 Centre de chirurgie ambulatoire
 Clinique d'anesthésie et de réanimation
 Laboratoire uni
@@ -589,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clinique_Paula_Stradins_de_l%27h%C3%B4pital_universitaire</t>
+          <t>Clinique_Paula_Stradins_de_l'hôpital_universitaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,14 +623,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital le plus grand et le plus important de Lettonie a changé de nom huit fois depuis 1910. Il s'appelait 2e hôpital municipal de Riga de 1910 à 1940 et il est le principal hôpital universitaire de l'Université de Lettonie depuis 1928.
 Pendant l'occupation soviétique en 1940-1941, on l'appelait Hôpital clinique national, puis pendant l'Occupation allemande de la Lettonie pendant la Seconde Guerre mondiale jusqu'en 1944, on l'appelait Hôpital de Riga.
 De 1944 à 1948, il s'appelait Hôpital clinique national, puis rebaptisé Hôpital clinique républicain jusqu'en 1958, date à laquelle le nom fut de nouveau changé en Hôpital clinique républicain Pauls Stradiņš.
 En 1993, le nom a de nouveau été changé en Hôpital national Pauls Stradiņš, et en 1995, le nom a été changé en Hôpital clinique Pauls Stradiņš de l'Académie lettone de médecine.
 Finalement, il reçut son nom actuel – Hôpital universitaire clinique Pauls Stradiņš.
-Cependant, depuis 1958, les habitants de Riga se réfèrent quotidiennement à l'hôpital par le simple nom Stradiņa[4].
+Cependant, depuis 1958, les habitants de Riga se réfèrent quotidiennement à l'hôpital par le simple nom Stradiņa.
 </t>
         </is>
       </c>
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clinique_Paula_Stradins_de_l%27h%C3%B4pital_universitaire</t>
+          <t>Clinique_Paula_Stradins_de_l'hôpital_universitaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,7 +661,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trolleybus : 5</t>
         </is>
